--- a/testUser-MASK.xlsx
+++ b/testUser-MASK.xlsx
@@ -722,7 +722,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>您好！27507话务员为您服务您好，很高兴服务您好您好，我想咨询一下这个携号转网具体怎么操作是您是哪个号码办理，冒昧问一下就133那个就这个号码是吗机主的姓名可以报一下吗申请中好的，您稍等一下您好，抱歉久等了，首先我这边查了一下，因为您这个号码是您家里面宽带套餐的一个副卡，对吧如果说您这个号码要做携号转网的话，要先把这个号码退出这个套餐然后再做旋转，我才可以退出套餐是什么意思这个套餐的话，就是说把这个号码要退，你现在用那个套餐要去营业厅办理的就是就取消这个套餐，然后就可以办携号转网在你们这边就是把它取消套餐，然后我再到想转到那个里面去，然后就去那边去办理就好了对，是的，流程方面是这样的，就是您本人拿自己身份证原件卡带好去一下我们电信的营业厅，先把这个退出这个套餐然后的话通过短信通过短信发送一个sql，case井号，用户名，警号，证件号码到10001号，获取一个携号转网的一个授权码然后他有授权码之后，然后您再到相应的那个就是你要转入的运营商那边咨询怎么转录就可以了这个短信等一下我帮您发过来好谢谢你没关系看一下还有其他的问题好没有了谢谢感谢来电，欢迎关注中国电信上海客服微信公众号，请您稍后对我的服务做出评价。</t>
+          <t>user您好2165话务员为您服务agentagent您好很高兴为您服务user你好要为座机开通那个呼叫转移agent号码多少我查询一下useragent稍等agent您好请问一下用户登记人名字和地址报一下我查看一下useruser像user讲叫然后地址是user路agent好稍等agent那请问一下您这边的话要开通呼叫转移的话是要在什么情况下转移比如说您设置之后家里电话响都不想直接转移还是说响五声没人接在转移还是遇到毛衣的时候转移user直接转移agent好的设置之后想都不想直接转移那这边的话是一个无条件转移那我这边帮您办理之后的话24小时之内然后开通然后您这边的话需要自己就是说开通之后自己要在电话机上进行设置使用的您记录一下怎么设置userOK好的agent您到时候的话电话筒您起来听到拨号音之后按星号user我寄一下稍等一下agentuser27号然后agent然后再57user在57agent在信号user待信号agent然后你要转移到的号码agent现在还不能设置先生user好的什么时候可以设置agent就是我这边帮您办理之后24小时之内生效我建议您的话您就是大概过个半小时之后您是一下userOK好的好的agent然后您记一下到时候设置的时候电话筒您起来听到拨号音按星号57星号您要转移到的号码在井号userOKagent如果说您回来之后要取消的话您再按电话统领起来听到拨号音后按井号57井号user然后再好的好的agent然后这转移到本地电话的话呼叫转移成功的话也是按正常的通话费来进行收取相当于这个电话打出去一样收费的user好的好的agent那还有其他问题吗user没有谢谢agent好的不客气欢迎关注中国电信上海客服微信公众号稍对次服务做评价再见agentuser再见</t>
         </is>
       </c>
     </row>
